--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-022 - Admin SLN dan Admin WEM melakukan edit data Non Sales yang telah diajukan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0018-022 - Admin SLN dan Admin WEM melakukan edit data Non Sales yang telah diajukan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF058E4-4533-41AB-9D5B-1FDEA90E8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE6C32-6072-4574-AB2A-4523C8FA2167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0299" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0018" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>Cuti Sakit</t>
   </si>
   <si>
-    <t>DGS-314</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -Login sebagai Admin WEM
  -Pilih menu monitoring di fitur non sales update
  -Klik button edit 
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ,RTL/9112</t>
+  </si>
+  <si>
+    <t>SCD0018-022</t>
   </si>
 </sst>
 </file>
@@ -522,14 +522,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3">
         <v>37679</v>
@@ -634,17 +634,17 @@
       </c>
       <c r="M2" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd") &amp;","&amp;TEXT(TODAY()-31,"yyyy-mm-dd")</f>
-        <v>2022-09-08,2022-08-08</v>
+        <v>2022-11-10,2022-10-10</v>
       </c>
       <c r="N2" s="1" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd") &amp;","&amp;TEXT(TODAY()-29,"yyyy-mm-dd")</f>
-        <v>2022-09-10,2022-08-10</v>
+        <v>2022-11-12,2022-10-12</v>
       </c>
       <c r="O2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>22</v>
@@ -657,16 +657,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="3">
         <v>52326</v>
@@ -685,17 +685,17 @@
       </c>
       <c r="M3" s="1" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd") &amp;","&amp;TEXT(TODAY()-31,"yyyy-mm-dd")</f>
-        <v>2022-09-08,2022-08-08</v>
+        <v>2022-11-10,2022-10-10</v>
       </c>
       <c r="N3" s="1" t="str">
         <f ca="1">TEXT(TODAY()+2,"yyyy-mm-dd") &amp;","&amp;TEXT(TODAY()-29,"yyyy-mm-dd")</f>
-        <v>2022-09-10,2022-08-10</v>
+        <v>2022-11-12,2022-10-12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>22</v>
